--- a/sem4/curse/Оборудование.xlsx
+++ b/sem4/curse/Оборудование.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02795FB7-615F-41D1-90A8-6A61BE8CC8F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="46">
   <si>
     <t>CO-SW8G</t>
   </si>
@@ -115,13 +116,55 @@
   </si>
   <si>
     <t>Металлический кожух.</t>
+  </si>
+  <si>
+    <t>CO-SW24</t>
+  </si>
+  <si>
+    <t>Архитектура</t>
+  </si>
+  <si>
+    <t>24x10/100Base-TX Ethernet RJ45</t>
+  </si>
+  <si>
+    <t>Неуправляемый</t>
+  </si>
+  <si>
+    <t>IEEE 802.3, IEEE 802.3i, IEEE 802.3u, IEEE 802.3x</t>
+  </si>
+  <si>
+    <t>Store-And-Forward</t>
+  </si>
+  <si>
+    <t>до 4.8Gbps</t>
+  </si>
+  <si>
+    <t>Auto-negotiation (10/100, full duplex), Flow Control, Auto-MDI/MDI-X</t>
+  </si>
+  <si>
+    <t>Блок питания встроенный, AC 220В / 50Гц</t>
+  </si>
+  <si>
+    <t>до 10Вт</t>
+  </si>
+  <si>
+    <t>0°C ~ +40°C</t>
+  </si>
+  <si>
+    <t>450х180х45</t>
+  </si>
+  <si>
+    <t>IP20</t>
+  </si>
+  <si>
+    <t>Металлический 19" кожух. В комплекте 19" скобы, кабель питания 220В.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,13 +179,24 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF333333"/>
+      <name val="Inherit"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -198,7 +252,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -206,6 +260,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -487,26 +550,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="A1:B17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="69.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -514,7 +577,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -522,7 +585,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -530,7 +593,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -538,7 +601,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -546,7 +609,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -554,7 +617,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -562,7 +625,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -570,7 +633,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -578,7 +641,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -586,7 +649,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -594,7 +657,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -602,7 +665,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -610,7 +673,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -618,7 +681,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -626,7 +689,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
@@ -634,9 +697,136 @@
         <v>31</v>
       </c>
     </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="7"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" s="6">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A19:B19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/sem4/curse/Оборудование.xlsx
+++ b/sem4/curse/Оборудование.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02795FB7-615F-41D1-90A8-6A61BE8CC8F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="110">
   <si>
     <t>CO-SW8G</t>
   </si>
@@ -158,13 +157,205 @@
   </si>
   <si>
     <t>Металлический 19" кожух. В комплекте 19" скобы, кабель питания 220В.</t>
+  </si>
+  <si>
+    <t>DSL-модем Mercusys MR70X</t>
+  </si>
+  <si>
+    <t>Тип устройства</t>
+  </si>
+  <si>
+    <t>маршрутизатор</t>
+  </si>
+  <si>
+    <t>Стандарты беспроводной связи</t>
+  </si>
+  <si>
+    <t>802.11ax (Wi-Fi 6) (Wi-Fi 6)</t>
+  </si>
+  <si>
+    <t>Макс. скорость беспроводной связи</t>
+  </si>
+  <si>
+    <t>1201 Mbps</t>
+  </si>
+  <si>
+    <t>Дополнительные SSID (поддержка VLAN 802.1Q)</t>
+  </si>
+  <si>
+    <t>есть</t>
+  </si>
+  <si>
+    <t>Протоколы безопасности беспроводной сети</t>
+  </si>
+  <si>
+    <t>WEP, WPA, WPA2-PSK, WPA3-PSK</t>
+  </si>
+  <si>
+    <t>Поддержка 802.1X</t>
+  </si>
+  <si>
+    <t>нет</t>
+  </si>
+  <si>
+    <t>Поддержка сотовой связи</t>
+  </si>
+  <si>
+    <t>Поддерживаемые виды интернет-соединений</t>
+  </si>
+  <si>
+    <t>Static IP, Dynamic IP, PPPoE, L2TP, PPTP</t>
+  </si>
+  <si>
+    <t>Статическая маршрутизация</t>
+  </si>
+  <si>
+    <t>Межсетевой экран (файрвол)</t>
+  </si>
+  <si>
+    <t>Проброс портов (forwarding)</t>
+  </si>
+  <si>
+    <t>SPI, NAT, IP-MAC binding, есть</t>
+  </si>
+  <si>
+    <t>DMZ host, есть, Port Triggering, ALG, Virtual Server</t>
+  </si>
+  <si>
+    <t>IP-адреса, есть, MAC-адреса</t>
+  </si>
+  <si>
+    <t>VPN-сервер</t>
+  </si>
+  <si>
+    <t>Фильтрация трафика</t>
+  </si>
+  <si>
+    <t>есть (PPTP, OpenVPN)</t>
+  </si>
+  <si>
+    <t>Приоритезация трафика (QoS)</t>
+  </si>
+  <si>
+    <t>Приоритезация беспроводного трафика (WMM)</t>
+  </si>
+  <si>
+    <t>Поддержка IGMP</t>
+  </si>
+  <si>
+    <t>snooping, есть, proxy</t>
+  </si>
+  <si>
+    <t>Шлюз SIP (VoIP)</t>
+  </si>
+  <si>
+    <t>Медиасервер (USB sharing)</t>
+  </si>
+  <si>
+    <t>Беспроводная сеть</t>
+  </si>
+  <si>
+    <t>Количество антенн</t>
+  </si>
+  <si>
+    <t>MIMO</t>
+  </si>
+  <si>
+    <t>есть (MU)</t>
+  </si>
+  <si>
+    <t>Съемная антенна</t>
+  </si>
+  <si>
+    <t>Диапазон частот</t>
+  </si>
+  <si>
+    <t>2.4 ГГц, 5 ГГц</t>
+  </si>
+  <si>
+    <t>Эквивалентная излучаемая мощность (EIRP)</t>
+  </si>
+  <si>
+    <t>20 dBm</t>
+  </si>
+  <si>
+    <t>Фильтрация по МАС-адресу клиента</t>
+  </si>
+  <si>
+    <t>WiFi (Вай Фай) Точка доступа 2.4ГГц, CF-E320N V2, COMFAST</t>
+  </si>
+  <si>
+    <t>Процессор</t>
+  </si>
+  <si>
+    <t>QCA9531(QCA9533) Built in Watchdog</t>
+  </si>
+  <si>
+    <t>Диапазон влажности воздуха, %</t>
+  </si>
+  <si>
+    <t>от 10 до 90% (без конденсирования)</t>
+  </si>
+  <si>
+    <t>Питание по PoE 48VDC (POE-инжектор в комплекте</t>
+  </si>
+  <si>
+    <t>Размеры устройства</t>
+  </si>
+  <si>
+    <t>200х200x18</t>
+  </si>
+  <si>
+    <t>Индикация LED</t>
+  </si>
+  <si>
+    <t>Есть</t>
+  </si>
+  <si>
+    <t>Беспроводные частоты</t>
+  </si>
+  <si>
+    <t>2.4GHz (2.4GHz-2.4835GHz)</t>
+  </si>
+  <si>
+    <t>Беспроводная скорость передачи</t>
+  </si>
+  <si>
+    <t>300Mbps</t>
+  </si>
+  <si>
+    <t>1* 10/100Mbps WAN RJ45 Ethernet Port (POE), 1* 10/100Mbps LAN RJ45 Ethernet Port (POE)</t>
+  </si>
+  <si>
+    <t>Потребляемая мощность, Вт</t>
+  </si>
+  <si>
+    <t>до 8 Вт</t>
+  </si>
+  <si>
+    <t>от минус 10°C до плюс 65°C</t>
+  </si>
+  <si>
+    <t>Класс защиты, IP</t>
+  </si>
+  <si>
+    <t>IP41</t>
+  </si>
+  <si>
+    <t>Габариты упаковки</t>
+  </si>
+  <si>
+    <t>335х225x45</t>
+  </si>
+  <si>
+    <t>Пластиковый корпус</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,6 +374,26 @@
       <sz val="9"/>
       <color rgb="FF333333"/>
       <name val="Inherit"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="3">
@@ -252,24 +463,46 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -550,24 +783,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B76"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:B34"/>
+      <selection activeCell="A36" sqref="A36:B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="69.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
+      <c r="B1" s="6"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
@@ -715,7 +948,7 @@
       <c r="A21" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="3" t="s">
         <v>35</v>
       </c>
     </row>
@@ -739,7 +972,7 @@
       <c r="A24" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -747,7 +980,7 @@
       <c r="A25" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="3" t="s">
         <v>38</v>
       </c>
     </row>
@@ -763,7 +996,7 @@
       <c r="A27" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="3" t="s">
         <v>24</v>
       </c>
     </row>
@@ -779,7 +1012,7 @@
       <c r="A29" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="3" t="s">
         <v>41</v>
       </c>
     </row>
@@ -787,7 +1020,7 @@
       <c r="A30" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="3" t="s">
         <v>42</v>
       </c>
     </row>
@@ -795,7 +1028,7 @@
       <c r="A31" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="6">
+      <c r="B31" s="4">
         <v>2300</v>
       </c>
     </row>
@@ -803,7 +1036,7 @@
       <c r="A32" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="3" t="s">
         <v>43</v>
       </c>
     </row>
@@ -811,7 +1044,7 @@
       <c r="A33" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="3" t="s">
         <v>44</v>
       </c>
     </row>
@@ -823,10 +1056,327 @@
         <v>45</v>
       </c>
     </row>
+    <row r="36" spans="1:2" ht="18.75">
+      <c r="A36" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" s="8"/>
+    </row>
+    <row r="37" spans="1:2" ht="18.75">
+      <c r="A37" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="37.5">
+      <c r="A38" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="37.5">
+      <c r="A39" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="56.25">
+      <c r="A40" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="56.25">
+      <c r="A41" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="18.75">
+      <c r="A42" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="37.5">
+      <c r="A43" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="37.5">
+      <c r="A44" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="37.5">
+      <c r="A45" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="37.5">
+      <c r="A46" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="37.5">
+      <c r="A47" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="18.75">
+      <c r="A48" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="18.75">
+      <c r="A49" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="37.5">
+      <c r="A50" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="56.25">
+      <c r="A51" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="18.75">
+      <c r="A52" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="18.75">
+      <c r="A53" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="37.5">
+      <c r="A54" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="18.75">
+      <c r="A55" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B55" s="10"/>
+    </row>
+    <row r="56" spans="1:2" ht="18.75">
+      <c r="A56" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B56" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="18.75">
+      <c r="A57" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="18.75">
+      <c r="A58" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="18.75">
+      <c r="A59" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="56.25">
+      <c r="A60" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="37.5">
+      <c r="A61" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="18.75">
+      <c r="A63" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B63" s="12"/>
+    </row>
+    <row r="64" spans="1:2" ht="18.75">
+      <c r="A64" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="B64" s="13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="18.75">
+      <c r="A65" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="B65" s="13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="18.75">
+      <c r="A66" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B66" s="13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="18.75">
+      <c r="A67" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="B67" s="13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="18.75">
+      <c r="A68" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="B68" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="18.75">
+      <c r="A69" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="B69" s="13" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="18.75">
+      <c r="A70" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="B70" s="13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="36" customHeight="1">
+      <c r="A71" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B71" s="14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="18.75">
+      <c r="A72" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B72" s="13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="18.75">
+      <c r="A73" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B73" s="13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="18.75">
+      <c r="A74" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="B74" s="13" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="18.75">
+      <c r="A75" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="B75" s="13" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="18.75">
+      <c r="A76" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B76" s="13" t="s">
+        <v>109</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="5">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A63:B63"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
